--- a/REGULAR/CHO/SANARES, DAN.xlsx
+++ b/REGULAR/CHO/SANARES, DAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="211">
   <si>
     <t>PERIOD</t>
   </si>
@@ -644,7 +644,28 @@
     <t>VL(3-0-0)</t>
   </si>
   <si>
-    <t>8/25,29,30/2023</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/23,26,27/2023</t>
+  </si>
+  <si>
+    <t>8/25,29,30/2023 (24,25,29)</t>
+  </si>
+  <si>
+    <t>8/11,22,23/2023</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/2,8,27,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1373,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K297" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K299" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1681,12 +1702,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K297"/>
+  <dimension ref="A2:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2265" topLeftCell="A239" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
+      <selection pane="bottomLeft" activeCell="K248" sqref="K248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1866,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.502999999999957</v>
+        <v>4.7529999999999575</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1855,7 +1876,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>94.125</v>
+        <v>100.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7068,11 +7089,15 @@
       <c r="A248" s="40">
         <v>45078</v>
       </c>
-      <c r="B248" s="20"/>
+      <c r="B248" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="C248" s="13">
         <v>1.25</v>
       </c>
-      <c r="D248" s="39"/>
+      <c r="D248" s="39">
+        <v>4</v>
+      </c>
       <c r="E248" s="9"/>
       <c r="F248" s="20"/>
       <c r="G248" s="13">
@@ -7082,7 +7107,9 @@
       <c r="H248" s="39"/>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="20"/>
+      <c r="K248" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
@@ -7111,30 +7138,34 @@
       <c r="B250" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C250" s="13"/>
+      <c r="C250" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D250" s="39">
         <v>3</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G250" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
       <c r="K250" s="20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B251" s="20"/>
+      <c r="A251" s="40"/>
+      <c r="B251" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C251" s="13"/>
-      <c r="D251" s="39"/>
+      <c r="D251" s="39">
+        <v>3</v>
+      </c>
       <c r="E251" s="9"/>
       <c r="F251" s="20"/>
       <c r="G251" s="13" t="str">
@@ -7144,20 +7175,24 @@
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="20"/>
+      <c r="K251" s="20" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B252" s="20"/>
-      <c r="C252" s="13"/>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G252" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
@@ -7166,61 +7201,85 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B253" s="20"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B253" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C253" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D253" s="39">
+        <v>3</v>
+      </c>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G253" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
+      <c r="K253" s="20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C254" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D254" s="39">
+        <v>1</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G254" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="20"/>
+      <c r="K254" s="49">
+        <v>45233</v>
+      </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B255" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D255" s="39">
+        <v>1</v>
+      </c>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="20"/>
+      <c r="K255" s="49">
+        <v>45261</v>
+      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="40">
-        <v>45323</v>
+      <c r="A256" s="48" t="s">
+        <v>203</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7238,7 +7297,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7256,7 +7315,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7274,7 +7333,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7292,7 +7351,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7310,7 +7369,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7328,7 +7387,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7346,7 +7405,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7364,7 +7423,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7382,7 +7441,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7400,7 +7459,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7418,7 +7477,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7436,7 +7495,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7454,7 +7513,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -7472,7 +7531,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -7490,7 +7549,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -7508,7 +7567,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -7526,7 +7585,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -7544,7 +7603,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -7562,7 +7621,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -7580,7 +7639,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -7598,7 +7657,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -7616,7 +7675,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -7634,7 +7693,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -7652,7 +7711,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -7670,7 +7729,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -7688,7 +7747,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -7706,7 +7765,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -7724,7 +7783,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -7742,7 +7801,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -7760,7 +7819,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -7778,7 +7837,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -7796,7 +7855,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -7814,7 +7873,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -7832,7 +7891,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -7850,7 +7909,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -7867,7 +7926,9 @@
       <c r="K291" s="20"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="40"/>
+      <c r="A292" s="40">
+        <v>46357</v>
+      </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
       <c r="D292" s="39"/>
@@ -7883,7 +7944,9 @@
       <c r="K292" s="20"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="40"/>
+      <c r="A293" s="40">
+        <v>46388</v>
+      </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
       <c r="D293" s="39"/>
@@ -7947,20 +8010,52 @@
       <c r="K296" s="20"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="41"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="42"/>
-      <c r="D297" s="43"/>
+      <c r="A297" s="40"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="39"/>
       <c r="E297" s="9"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="42" t="str">
+      <c r="F297" s="20"/>
+      <c r="G297" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H297" s="43"/>
+      <c r="H297" s="39"/>
       <c r="I297" s="9"/>
-      <c r="J297" s="12"/>
-      <c r="K297" s="15"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="20"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="40"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="39"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H298" s="39"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="20"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="41"/>
+      <c r="B299" s="15"/>
+      <c r="C299" s="42"/>
+      <c r="D299" s="43"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="15"/>
+      <c r="G299" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H299" s="43"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="12"/>
+      <c r="K299" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CHO/SANARES, DAN.xlsx
+++ b/REGULAR/CHO/SANARES, DAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="214">
   <si>
     <t>PERIOD</t>
   </si>
@@ -666,6 +666,15 @@
   </si>
   <si>
     <t>6/2,8,27,29/2023</t>
+  </si>
+  <si>
+    <t>2/14-17/2023</t>
+  </si>
+  <si>
+    <t>A(6-0-0)</t>
+  </si>
+  <si>
+    <t>1/6,10,11,13,25,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1382,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K299" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K301" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1702,12 +1711,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K299"/>
+  <dimension ref="A2:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2265" topLeftCell="A239" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="K248" sqref="K248"/>
+      <selection pane="bottomLeft" activeCell="K244" sqref="K244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1875,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.7529999999999575</v>
+        <v>-5.2470000000000425</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7000,40 +7009,40 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C244" s="13">
-        <v>1.25</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C244" s="13"/>
       <c r="D244" s="39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G244" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="49">
-        <v>44977</v>
+      <c r="K244" s="20" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B245" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B245" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C245" s="13">
         <v>1.25</v>
       </c>
-      <c r="D245" s="39"/>
+      <c r="D245" s="39">
+        <v>1</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
       <c r="G245" s="13">
@@ -7043,31 +7052,35 @@
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20"/>
+      <c r="K245" s="49">
+        <v>44977</v>
+      </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B246" s="20"/>
-      <c r="C246" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D246" s="39"/>
+      <c r="A246" s="40"/>
+      <c r="B246" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C246" s="13"/>
+      <c r="D246" s="39">
+        <v>4</v>
+      </c>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G246" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="20"/>
+      <c r="K246" s="49" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13">
@@ -7087,17 +7100,13 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B248" s="20" t="s">
-        <v>209</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B248" s="20"/>
       <c r="C248" s="13">
         <v>1.25</v>
       </c>
-      <c r="D248" s="39">
-        <v>4</v>
-      </c>
+      <c r="D248" s="39"/>
       <c r="E248" s="9"/>
       <c r="F248" s="20"/>
       <c r="G248" s="13">
@@ -7107,13 +7116,11 @@
       <c r="H248" s="39"/>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="20" t="s">
-        <v>210</v>
-      </c>
+      <c r="K248" s="20"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -7133,16 +7140,16 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
       </c>
       <c r="D250" s="39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="20"/>
@@ -7154,40 +7161,42 @@
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
       <c r="K250" s="20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="40"/>
-      <c r="B251" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C251" s="13"/>
-      <c r="D251" s="39">
-        <v>3</v>
-      </c>
+      <c r="A251" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D251" s="39"/>
       <c r="E251" s="9"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G251" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="K251" s="20"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B252" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B252" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="C252" s="13">
         <v>1.25</v>
       </c>
-      <c r="D252" s="39"/>
+      <c r="D252" s="39">
+        <v>3</v>
+      </c>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
       <c r="G252" s="13">
@@ -7197,47 +7206,41 @@
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="20"/>
+      <c r="K252" s="20" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C253" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C253" s="13"/>
       <c r="D253" s="39">
         <v>3</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G253" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B254" s="20" t="s">
-        <v>204</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B254" s="20"/>
       <c r="C254" s="13">
         <v>1.25</v>
       </c>
-      <c r="D254" s="39">
-        <v>1</v>
-      </c>
+      <c r="D254" s="39"/>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
       <c r="G254" s="13">
@@ -7247,22 +7250,20 @@
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="49">
-        <v>45233</v>
-      </c>
+      <c r="K254" s="20"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C255" s="13">
         <v>1.25</v>
       </c>
       <c r="D255" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
@@ -7273,49 +7274,65 @@
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="49">
-        <v>45261</v>
+      <c r="K255" s="20" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B256" s="20"/>
-      <c r="C256" s="13"/>
-      <c r="D256" s="39"/>
+      <c r="A256" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B256" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C256" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D256" s="39">
+        <v>1</v>
+      </c>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G256" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H256" s="39"/>
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="20"/>
+      <c r="K256" s="49">
+        <v>45233</v>
+      </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
-      <c r="D257" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D257" s="39">
+        <v>1</v>
+      </c>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
-      <c r="K257" s="20"/>
+      <c r="K257" s="49">
+        <v>45261</v>
+      </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="40">
-        <v>45323</v>
+      <c r="A258" s="48" t="s">
+        <v>203</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7333,7 +7350,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7351,7 +7368,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7369,7 +7386,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7387,7 +7404,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7405,7 +7422,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7423,7 +7440,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7441,7 +7458,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7459,7 +7476,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7477,7 +7494,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7495,7 +7512,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7513,7 +7530,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -7531,7 +7548,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -7549,7 +7566,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -7567,7 +7584,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -7585,7 +7602,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -7603,7 +7620,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -7621,7 +7638,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -7639,7 +7656,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -7657,7 +7674,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -7675,7 +7692,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -7693,7 +7710,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -7711,7 +7728,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -7729,7 +7746,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -7747,7 +7764,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -7765,7 +7782,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -7783,7 +7800,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -7801,7 +7818,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -7819,7 +7836,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -7837,7 +7854,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -7855,7 +7872,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -7873,7 +7890,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -7891,7 +7908,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -7909,7 +7926,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -7927,7 +7944,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -7945,7 +7962,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -7962,7 +7979,9 @@
       <c r="K293" s="20"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="40"/>
+      <c r="A294" s="40">
+        <v>46357</v>
+      </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
       <c r="D294" s="39"/>
@@ -7978,7 +7997,9 @@
       <c r="K294" s="20"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="40"/>
+      <c r="A295" s="40">
+        <v>46388</v>
+      </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
       <c r="D295" s="39"/>
@@ -8042,20 +8063,52 @@
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="41"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="42"/>
-      <c r="D299" s="43"/>
+      <c r="A299" s="40"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="39"/>
       <c r="E299" s="9"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="42" t="str">
+      <c r="F299" s="20"/>
+      <c r="G299" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H299" s="43"/>
+      <c r="H299" s="39"/>
       <c r="I299" s="9"/>
-      <c r="J299" s="12"/>
-      <c r="K299" s="15"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="20"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="40"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="39"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="41"/>
+      <c r="B301" s="15"/>
+      <c r="C301" s="42"/>
+      <c r="D301" s="43"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="15"/>
+      <c r="G301" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H301" s="43"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="12"/>
+      <c r="K301" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
